--- a/Config/U_UI配置.xlsx
+++ b/Config/U_UI配置.xlsx
@@ -9,8 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">##</t>
   </si>
@@ -93,34 +91,16 @@
     <t xml:space="preserve">Overlay_NoNeedBack</t>
   </si>
   <si>
-    <t xml:space="preserve">PatchPanel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">IAFramework.UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">.MainUIPanel</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HideOther_NoNeedBack</t>
+    <t xml:space="preserve">MainGamePanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.UI.MainGamePanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HideOther</t>
   </si>
 </sst>
 </file>
@@ -159,12 +139,14 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="NSimSun"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +236,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -264,7 +246,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="9"/>
@@ -360,6 +342,9 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -381,50 +366,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Config/U_UI配置.xlsx
+++ b/Config/U_UI配置.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="500"/>
+    <workbookView windowWidth="21255" windowHeight="9195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>##</t>
   </si>
@@ -98,16 +85,34 @@
     <t>Overlay_NoNeedBack</t>
   </si>
   <si>
+    <t>StartGamePanel</t>
+  </si>
+  <si>
+    <t>Game.UI.StartGamePanel</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>HideOther</t>
+  </si>
+  <si>
+    <t>LevelLoadingPanel</t>
+  </si>
+  <si>
+    <t>Game.UI.LevelLoadingPanel</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>HideOther_NoNeedBack</t>
+  </si>
+  <si>
     <t>MainGamePanel</t>
   </si>
   <si>
     <t>Game.UI.MainGamePanel</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>HideOther</t>
   </si>
   <si>
     <t>RoomPanel</t>
@@ -125,12 +130,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -152,38 +157,75 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,19 +237,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,90 +261,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +322,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +513,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,20 +540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +570,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,163 +613,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,52 +775,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1012,7 +1017,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1021,7 +1026,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1300,13 +1305,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="29.8666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1333333333333" style="1" customWidth="1"/>
@@ -1425,31 +1430,31 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -1458,8 +1463,42 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/Config/U_UI配置.xlsx
+++ b/Config/U_UI配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="9195" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>##</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Game.UI.MainGamePanel</t>
+  </si>
+  <si>
+    <t>GameEndPanel</t>
+  </si>
+  <si>
+    <t>Game.UI.GameEndPanel</t>
   </si>
   <si>
     <t>RoomPanel</t>
@@ -132,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -158,14 +164,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,13 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +251,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,31 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,37 +314,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,11 +522,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +576,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,37 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,158 +619,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,10 +1311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1463,20 +1469,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1491,9 +1497,26 @@
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Config/U_UI配置.xlsx
+++ b/Config/U_UI配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="14745" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>##</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Game.UI.FightPanel</t>
+  </si>
+  <si>
+    <t>Test_CheckAudioPanel</t>
+  </si>
+  <si>
+    <t>CheckAudioPanel</t>
+  </si>
+  <si>
+    <t>Game.UITest.CheckAudioPanel</t>
   </si>
 </sst>
 </file>
@@ -140,8 +149,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -164,7 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,22 +214,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +305,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,60 +323,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,31 +337,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,151 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +528,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,15 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -557,6 +575,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,161 +628,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1520,6 +1529,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Config/U_UI配置.xlsx
+++ b/Config/U_UI配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>##</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Game.UI.FightPanel</t>
+  </si>
+  <si>
+    <t>GameSettingPanel</t>
+  </si>
+  <si>
+    <t>Game.UI.GameSettingPanel</t>
   </si>
   <si>
     <t>Test_CheckAudioPanel</t>
@@ -148,8 +154,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -180,14 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,16 +219,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,40 +251,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,46 +289,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,25 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,157 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,17 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,35 +587,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +640,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -645,27 +651,27 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,97 +680,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,10 +1326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1534,12 +1540,26 @@
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
